--- a/assets/disciplinas/LOQ4051.xlsx
+++ b/assets/disciplinas/LOQ4051.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -210,15 +210,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">LOQ4031 -  Química Geral I  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOQ4073 -  Química Geral II  (Requisito)
+    <t xml:space="preserve">LOQ4010 -  Introdução à  Engenharia  Química  (Requisito)
 </t>
   </si>
   <si>
     <t xml:space="preserve">LOQ4095 -  Química Geral Experimental  (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4097 -  Fundamentos de Química para Engenharia I (Requisito)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOQ4098 -  Fundamentos de Química para Engenharia II (Requisito)
 </t>
   </si>
 </sst>
@@ -575,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,6 +982,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="47" spans="2:3" ht="30" customHeight="1">
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/disciplinas/LOQ4051.xlsx
+++ b/assets/disciplinas/LOQ4051.xlsx
@@ -46,19 +46,19 @@
     <t>Créditos-trabalho</t>
   </si>
   <si>
-    <t>12</t>
+    <t>6</t>
   </si>
   <si>
     <t>Carga horária:</t>
   </si>
   <si>
-    <t>360 h   (    Estágio: 360 h         )</t>
+    <t>180 h   (    Estágio: 180 h         )</t>
   </si>
   <si>
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2011</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>

--- a/assets/disciplinas/LOQ4051.xlsx
+++ b/assets/disciplinas/LOQ4051.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer oportunidade de aplicação dos conhecimentos fundamentais da Engenharia Química nos projetos e processos químicos. Complementação da formação geral curricular. Adaptação psicológica e social do estudante à sua futura atividade profissional.</t>
+    <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>198273 - Domingos Savio Giordani</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Plano de Trabalho específico. Realização do Estágio. Relatório final e/ou parciais.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Participação do aluno em processo seletivo de empresas ou no setor acadêmico. Estágio realizado sob a supervisão da Escola de Engenharia de Lorena, através do Departamento em Engenharia Química. O conteúdo será estabelecido individualmente no Plano de Trabalho entre o Supervisor do Estágio e o professor orientador, desde que relacionado com as áreas afins da Engenharia Química.  Apresentação de relatório final e/ou relatórios parciais sobre as atividades desenvolvidas no estágio.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo professor orientador do estágio.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Não será oferecida recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>A ser definida com o orientador em função das atividades desenvolvidas no estágio.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -579,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -704,290 +695,282 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" ht="30" customHeight="1">
-      <c r="B47" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOQ4051.xlsx
+++ b/assets/disciplinas/LOQ4051.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="62">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer oportunidade de aplicação dos conhecimentos fundamentais da Engenharia Química nos projetos e processos químicos. Complementação da formação geral curricular. Adaptação psicológica e social do estudante à sua futura atividade profissional.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>198273 - Domingos Savio Giordani</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Plano de Trabalho específico. Realização do Estágio. Relatório final e/ou parciais.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Participação do aluno em processo seletivo de empresas ou no setor acadêmico. Estágio realizado sob a supervisão da Escola de Engenharia de Lorena, através do Departamento em Engenharia Química. O conteúdo será estabelecido individualmente no Plano de Trabalho entre o Supervisor do Estágio e o professor orientador, desde que relacionado com as áreas afins da Engenharia Química.  Apresentação de relatório final e/ou relatórios parciais sobre as atividades desenvolvidas no estágio.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Supervisão das atividades desenvolvidas pelo aluno durante o estágio.</t>
+    <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo professor orientador do estágio.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = Nota baseada em relatório final e no desempenho no estágio, a ser atribuída pelo professor orientador do estágio.</t>
+    <t>Não será oferecida recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Não será oferecida recuperação.</t>
+    <t>A ser definida com o orientador em função das atividades desenvolvidas no estágio.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -570,13 +579,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -695,282 +704,290 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="30" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="30" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="30" customHeight="1">
+      <c r="B47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
